--- a/info/db_map.xlsx
+++ b/info/db_map.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rzs\wp-content\themes\rzs\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD225A-D29D-4FC3-8CBE-0A0E9909AD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2340" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2340" windowWidth="14400" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,9 +233,6 @@
     <t>Працівники</t>
   </si>
   <si>
-    <t>liberated</t>
-  </si>
-  <si>
     <t>працює</t>
   </si>
   <si>
@@ -349,12 +345,15 @@
   </si>
   <si>
     <t>full_name</t>
+  </si>
+  <si>
+    <t>is_working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,14 +488,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,36 +776,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G1" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -826,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,34 +858,34 @@
       <c r="E4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,11 +893,11 @@
         <v>15</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -918,7 +917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,29 +931,29 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>36</v>
@@ -963,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -971,19 +970,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -991,17 +990,17 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,14 +1008,14 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,10 +1023,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>40</v>
@@ -1036,7 +1035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1049,14 +1048,14 @@
       <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>107</v>
+      <c r="G16" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,16 +1063,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1081,24 +1080,24 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>45</v>
@@ -1107,24 +1106,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,13 +1131,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1154,13 +1153,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,13 +1202,13 @@
         <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1223,15 +1222,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -1239,18 +1238,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1261,18 +1260,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1280,26 +1279,26 @@
         <v>57</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
